--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/Semi_Final/Infosys Ltd_Semi_Final.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Infosys Ltd/Pruned_Excel/Semi_Final/Infosys Ltd_Semi_Final.xlsx
@@ -18,11 +18,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="111">
   <si>
     <t>Balance Sheet of Infosys(in Rs. Cr.)</t>
   </si>
   <si>
+    <t>Month</t>
+  </si>
+  <si>
     <t>Total share capital</t>
   </si>
   <si>
@@ -59,64 +62,67 @@
     <t>Total assets</t>
   </si>
   <si>
-    <t>Mar 05</t>
-  </si>
-  <si>
-    <t>Mar 06</t>
-  </si>
-  <si>
-    <t>Mar 07</t>
-  </si>
-  <si>
-    <t>Mar 08</t>
-  </si>
-  <si>
-    <t>Mar 09</t>
-  </si>
-  <si>
-    <t>Mar 10</t>
-  </si>
-  <si>
-    <t>Mar 11</t>
-  </si>
-  <si>
-    <t>Mar 12</t>
-  </si>
-  <si>
-    <t>Mar 13</t>
-  </si>
-  <si>
-    <t>Mar 14</t>
-  </si>
-  <si>
-    <t>Mar 15</t>
-  </si>
-  <si>
-    <t>Mar 16</t>
-  </si>
-  <si>
-    <t>Mar 17</t>
-  </si>
-  <si>
-    <t>Mar 18</t>
-  </si>
-  <si>
-    <t>Mar 19</t>
-  </si>
-  <si>
-    <t>Mar 20</t>
-  </si>
-  <si>
-    <t>Mar 21</t>
-  </si>
-  <si>
-    <t>Mar 22</t>
-  </si>
-  <si>
-    <t>Mar 23</t>
-  </si>
-  <si>
-    <t>Mar 24</t>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>03</t>
   </si>
   <si>
     <t>Cash Flow of Infosys(in Rs. Cr.)</t>
@@ -215,9 +221,6 @@
     <t>Quarterly Results of Infosys(in Rs. Cr.)</t>
   </si>
   <si>
-    <t>Month</t>
-  </si>
-  <si>
     <t>Quarter</t>
   </si>
   <si>
@@ -275,46 +278,7 @@
     <t>Diluted eps.</t>
   </si>
   <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
-    <t>2023</t>
-  </si>
-  <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>12</t>
-  </si>
-  <si>
-    <t>03</t>
   </si>
   <si>
     <t>06</t>
@@ -744,13 +708,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M21"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -790,824 +754,887 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>135.29</v>
-      </c>
-      <c r="C2">
-        <v>5106.44</v>
       </c>
       <c r="D2">
         <v>5106.44</v>
       </c>
       <c r="E2">
+        <v>5106.44</v>
+      </c>
+      <c r="F2">
         <v>5241.73</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>577.6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>1346.04</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>6587.77</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>1134.76</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>1494.42</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>2857.15</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>3730.62</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>6587.77</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>138</v>
-      </c>
-      <c r="C3">
-        <v>6759</v>
       </c>
       <c r="D3">
         <v>6759</v>
       </c>
       <c r="E3">
+        <v>6759</v>
+      </c>
+      <c r="F3">
         <v>6897</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>802</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2217</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>9114</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>1562</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>2133</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>3065</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>6049</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>9114</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>286</v>
-      </c>
-      <c r="C4">
-        <v>10876</v>
       </c>
       <c r="D4">
         <v>10876</v>
       </c>
       <c r="E4">
+        <v>10876</v>
+      </c>
+      <c r="F4">
         <v>11162</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1139</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1824</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>12986</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>2150</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>3107</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>4025</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>8961</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>12986</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>286</v>
-      </c>
-      <c r="C5">
-        <v>13204</v>
       </c>
       <c r="D5">
         <v>13204</v>
       </c>
       <c r="E5">
+        <v>13204</v>
+      </c>
+      <c r="F5">
         <v>13490</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>1447</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3731</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>17221</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>2671</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>3931</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>4994</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>12227</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>17221</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>286</v>
-      </c>
-      <c r="C6">
-        <v>17523</v>
       </c>
       <c r="D6">
         <v>17523</v>
       </c>
       <c r="E6">
+        <v>17523</v>
+      </c>
+      <c r="F6">
         <v>17809</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>1472</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3305</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>21151</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>3787</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>4414</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>5558</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>15593</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>21151</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>287</v>
-      </c>
-      <c r="C7">
-        <v>21749</v>
       </c>
       <c r="D7">
         <v>21749</v>
       </c>
       <c r="E7">
+        <v>21749</v>
+      </c>
+      <c r="F7">
         <v>22036</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>1667</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3798</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>26066</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>3767</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>4188</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>9137</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>16929</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>26066</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>287</v>
-      </c>
-      <c r="C8">
-        <v>24214</v>
       </c>
       <c r="D8">
         <v>24214</v>
       </c>
       <c r="E8">
+        <v>24214</v>
+      </c>
+      <c r="F8">
         <v>24501</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>1880</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>4353</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>28854</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>4056</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4305</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5860</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>22994</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>28854</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>287</v>
-      </c>
-      <c r="C9">
-        <v>29470</v>
       </c>
       <c r="D9">
         <v>29470</v>
       </c>
       <c r="E9">
+        <v>29470</v>
+      </c>
+      <c r="F9">
         <v>29757</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>2454</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>6058</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>35815</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>4061</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4649</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>6247</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>29568</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>35815</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>287</v>
-      </c>
-      <c r="C10">
-        <v>35772</v>
       </c>
       <c r="D10">
         <v>35772</v>
       </c>
       <c r="E10">
+        <v>35772</v>
+      </c>
+      <c r="F10">
         <v>36059</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>2827</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>6793</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>43028</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>4425</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>5588</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>10290</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>32738</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>43028</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>286</v>
-      </c>
-      <c r="C11">
-        <v>41806</v>
       </c>
       <c r="D11">
         <v>41806</v>
       </c>
       <c r="E11">
+        <v>41806</v>
+      </c>
+      <c r="F11">
         <v>42092</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>4071</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10256</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>52712</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>5719</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>6686</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>13475</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>39237</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>52712</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>574</v>
-      </c>
-      <c r="C12">
-        <v>47494</v>
       </c>
       <c r="D12">
         <v>47494</v>
       </c>
       <c r="E12">
+        <v>47494</v>
+      </c>
+      <c r="F12">
         <v>48068</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>5546</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>13715</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>61813</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>7347</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>8116</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>19061</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>42752</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>61813</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>1148</v>
-      </c>
-      <c r="C13">
-        <v>59934</v>
       </c>
       <c r="D13">
         <v>59934</v>
       </c>
       <c r="E13">
+        <v>59934</v>
+      </c>
+      <c r="F13">
         <v>61082</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>10529</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>11588</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>72732</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>8248</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>9182</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>26635</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>46097</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>72732</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:14">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>1148</v>
-      </c>
-      <c r="C14">
-        <v>66869</v>
       </c>
       <c r="D14">
         <v>66869</v>
       </c>
       <c r="E14">
+        <v>66869</v>
+      </c>
+      <c r="F14">
         <v>68017</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>11167</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>11786</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>79885</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>8605</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>9852</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>32203</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>47682</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>79885</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>1092</v>
-      </c>
-      <c r="C15">
-        <v>62410</v>
       </c>
       <c r="D15">
         <v>62410</v>
       </c>
       <c r="E15">
+        <v>62410</v>
+      </c>
+      <c r="F15">
         <v>63502</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>10488</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>11662</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>75877</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>9027</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>10599</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>31787</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>44090</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>75877</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>2178</v>
-      </c>
-      <c r="C16">
-        <v>60533</v>
       </c>
       <c r="D16">
         <v>60533</v>
       </c>
       <c r="E16">
+        <v>60533</v>
+      </c>
+      <c r="F16">
         <v>62711</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>13321</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>15430</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>78930</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>10394</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>11709</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>32707</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>46223</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>78930</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>2129</v>
-      </c>
-      <c r="C17">
-        <v>59808</v>
       </c>
       <c r="D17">
         <v>59808</v>
       </c>
       <c r="E17">
+        <v>59808</v>
+      </c>
+      <c r="F17">
         <v>62234</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>13185</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>15220</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>81041</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13897</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>14919</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>37221</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>43820</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>81041</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>2130</v>
-      </c>
-      <c r="C18">
-        <v>69029</v>
       </c>
       <c r="D18">
         <v>69029</v>
       </c>
       <c r="E18">
+        <v>69029</v>
+      </c>
+      <c r="F18">
         <v>71531</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>15399</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>17622</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>93939</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>14365</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>15505</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>45657</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>48282</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>93939</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>2103</v>
-      </c>
-      <c r="C19">
-        <v>66597</v>
       </c>
       <c r="D19">
         <v>66597</v>
       </c>
       <c r="E19">
+        <v>66597</v>
+      </c>
+      <c r="F19">
         <v>69306</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>21387</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>24976</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>99387</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>14695</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>15349</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>46950</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>52437</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>99387</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>2074</v>
-      </c>
-      <c r="C20">
-        <v>64793</v>
       </c>
       <c r="D20">
         <v>64793</v>
       </c>
       <c r="E20">
+        <v>64793</v>
+      </c>
+      <c r="F20">
         <v>67745</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>23853</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>27442</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>101337</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>15217</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>15706</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>49255</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>52082</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>101337</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>2075</v>
-      </c>
-      <c r="C21">
-        <v>79101</v>
       </c>
       <c r="D21">
         <v>79101</v>
       </c>
       <c r="E21">
+        <v>79101</v>
+      </c>
+      <c r="F21">
         <v>81176</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>23129</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>27086</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>114950</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>14116</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>14604</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>43998</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>70952</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>114950</v>
       </c>
     </row>
@@ -1618,618 +1645,681 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
+        <v>2184.49</v>
+      </c>
+      <c r="D2">
+        <v>1359.7</v>
+      </c>
+      <c r="E2">
+        <v>-939.88</v>
+      </c>
+      <c r="F2">
+        <v>-580.1</v>
+      </c>
+      <c r="G2">
+        <v>3.96</v>
+      </c>
+      <c r="H2">
+        <v>-156.32</v>
+      </c>
+      <c r="I2">
+        <v>1839.4</v>
+      </c>
+      <c r="J2">
+        <v>1683.08</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
+        <v>2724</v>
+      </c>
+      <c r="D3">
+        <v>2237</v>
+      </c>
+      <c r="E3">
+        <v>-392</v>
+      </c>
+      <c r="F3">
+        <v>244</v>
+      </c>
+      <c r="G3">
+        <v>7</v>
+      </c>
+      <c r="H3">
+        <v>2096</v>
+      </c>
+      <c r="I3">
+        <v>1683</v>
+      </c>
+      <c r="J3">
+        <v>3779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
+        <v>4129</v>
+      </c>
+      <c r="D4">
+        <v>3256</v>
+      </c>
+      <c r="E4">
+        <v>-1065</v>
+      </c>
+      <c r="F4">
+        <v>-316</v>
+      </c>
+      <c r="G4">
+        <v>-0.04</v>
+      </c>
+      <c r="H4">
+        <v>1871</v>
+      </c>
+      <c r="I4">
+        <v>3779</v>
+      </c>
+      <c r="J4">
+        <v>5650</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
+        <v>5100</v>
+      </c>
+      <c r="D5">
+        <v>3816</v>
+      </c>
+      <c r="E5">
+        <v>-978</v>
+      </c>
+      <c r="F5">
+        <v>-777</v>
+      </c>
+      <c r="G5">
+        <v>18</v>
+      </c>
+      <c r="H5">
+        <v>2079</v>
+      </c>
+      <c r="I5">
+        <v>5610</v>
+      </c>
+      <c r="J5">
+        <v>7689</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>6714</v>
+      </c>
+      <c r="D6">
+        <v>5152</v>
+      </c>
+      <c r="E6">
+        <v>-195</v>
+      </c>
+      <c r="F6">
+        <v>-2430</v>
+      </c>
+      <c r="G6">
+        <v>0.73</v>
+      </c>
+      <c r="H6">
+        <v>2600</v>
+      </c>
+      <c r="I6">
+        <v>7689</v>
+      </c>
+      <c r="J6">
+        <v>10289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>7472</v>
+      </c>
+      <c r="D7">
+        <v>5876</v>
+      </c>
+      <c r="E7">
+        <v>-3314</v>
+      </c>
+      <c r="F7">
+        <v>-1486</v>
+      </c>
+      <c r="G7">
+        <v>-68</v>
+      </c>
+      <c r="H7">
+        <v>1008</v>
+      </c>
+      <c r="I7">
+        <v>10289</v>
+      </c>
+      <c r="J7">
+        <v>11297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>8821</v>
+      </c>
+      <c r="D8">
+        <v>4270</v>
+      </c>
+      <c r="E8">
+        <v>3235</v>
+      </c>
+      <c r="F8">
+        <v>-3642</v>
+      </c>
+      <c r="G8">
+        <v>5</v>
+      </c>
+      <c r="H8">
+        <v>3868</v>
+      </c>
+      <c r="I8">
+        <v>11297</v>
+      </c>
+      <c r="J8">
+        <v>15165</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>11096</v>
+      </c>
+      <c r="D9">
+        <v>5955</v>
+      </c>
+      <c r="E9">
+        <v>565</v>
+      </c>
+      <c r="F9">
+        <v>-2298</v>
+      </c>
+      <c r="G9">
+        <v>60</v>
+      </c>
+      <c r="H9">
+        <v>4392</v>
+      </c>
+      <c r="I9">
+        <v>15165</v>
+      </c>
+      <c r="J9">
+        <v>19557</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
+        <v>12274</v>
+      </c>
+      <c r="D10">
+        <v>6942</v>
+      </c>
+      <c r="E10">
+        <v>-2824</v>
+      </c>
+      <c r="F10">
+        <v>-3319</v>
+      </c>
+      <c r="G10">
+        <v>45</v>
+      </c>
+      <c r="H10">
+        <v>844</v>
+      </c>
+      <c r="I10">
+        <v>19557</v>
+      </c>
+      <c r="J10">
+        <v>20401</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
+        <v>14002</v>
+      </c>
+      <c r="D11">
+        <v>9148</v>
+      </c>
+      <c r="E11">
+        <v>-2307</v>
+      </c>
+      <c r="F11">
+        <v>-3177</v>
+      </c>
+      <c r="G11">
+        <v>34</v>
+      </c>
+      <c r="H11">
+        <v>3698</v>
+      </c>
+      <c r="I11">
+        <v>20402</v>
+      </c>
+      <c r="J11">
+        <v>24100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
+        <v>16798</v>
+      </c>
+      <c r="D12">
+        <v>7955</v>
+      </c>
+      <c r="E12">
+        <v>665</v>
+      </c>
+      <c r="F12">
+        <v>-4961</v>
+      </c>
+      <c r="G12">
+        <v>-37</v>
+      </c>
+      <c r="H12">
+        <v>3622</v>
+      </c>
+      <c r="I12">
+        <v>24100</v>
+      </c>
+      <c r="J12">
+        <v>27722</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
+        <v>12693</v>
+      </c>
+      <c r="D13">
+        <v>9578</v>
+      </c>
+      <c r="E13">
+        <v>-1207</v>
+      </c>
+      <c r="F13">
+        <v>-6908</v>
+      </c>
+      <c r="G13">
+        <v>-9</v>
+      </c>
+      <c r="H13">
+        <v>1454</v>
+      </c>
+      <c r="I13">
+        <v>27722</v>
+      </c>
+      <c r="J13">
+        <v>29176</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
+        <v>13818</v>
+      </c>
+      <c r="D14">
+        <v>10478</v>
+      </c>
+      <c r="E14">
+        <v>-13494</v>
+      </c>
+      <c r="F14">
+        <v>-6968</v>
+      </c>
+      <c r="G14">
+        <v>-39</v>
+      </c>
+      <c r="H14">
+        <v>-10023</v>
+      </c>
+      <c r="I14">
+        <v>29176</v>
+      </c>
+      <c r="J14">
+        <v>19153</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>16155</v>
+      </c>
+      <c r="D15">
+        <v>12475</v>
+      </c>
+      <c r="E15">
+        <v>5684</v>
+      </c>
+      <c r="F15">
+        <v>-20536</v>
+      </c>
+      <c r="G15">
+        <v>-6</v>
+      </c>
+      <c r="H15">
+        <v>-2383</v>
+      </c>
+      <c r="I15">
+        <v>19153</v>
+      </c>
+      <c r="J15">
+        <v>16770</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
+        <v>14702</v>
+      </c>
+      <c r="D16">
+        <v>13989</v>
+      </c>
+      <c r="E16">
+        <v>-587</v>
+      </c>
+      <c r="F16">
+        <v>-14571</v>
+      </c>
+      <c r="G16">
+        <v>-50</v>
+      </c>
+      <c r="H16">
+        <v>-1219</v>
+      </c>
+      <c r="I16">
+        <v>16770</v>
+      </c>
+      <c r="J16">
+        <v>15551</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
+        <v>15543</v>
+      </c>
+      <c r="D17">
+        <v>15572</v>
+      </c>
+      <c r="E17">
+        <v>-116</v>
+      </c>
+      <c r="F17">
+        <v>-17391</v>
+      </c>
+      <c r="G17">
+        <v>-54</v>
+      </c>
+      <c r="H17">
+        <v>-1989</v>
+      </c>
+      <c r="I17">
+        <v>15551</v>
+      </c>
+      <c r="J17">
+        <v>13562</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
+        <v>18048</v>
+      </c>
+      <c r="D18">
+        <v>19902</v>
+      </c>
+      <c r="E18">
+        <v>-6309</v>
+      </c>
+      <c r="F18">
+        <v>-9566</v>
+      </c>
+      <c r="G18">
+        <v>23</v>
+      </c>
+      <c r="H18">
+        <v>4050</v>
+      </c>
+      <c r="I18">
+        <v>13562</v>
+      </c>
+      <c r="J18">
+        <v>17612</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
+        <v>21235</v>
+      </c>
+      <c r="D19">
+        <v>22096</v>
+      </c>
+      <c r="E19">
+        <v>-3150</v>
+      </c>
+      <c r="F19">
+        <v>-24275</v>
+      </c>
+      <c r="G19">
+        <v>-13</v>
+      </c>
+      <c r="H19">
+        <v>-5342</v>
+      </c>
+      <c r="I19">
+        <v>17612</v>
+      </c>
+      <c r="J19">
+        <v>12270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
+        <v>23268</v>
+      </c>
+      <c r="D20">
+        <v>19169</v>
+      </c>
+      <c r="E20">
+        <v>821</v>
+      </c>
+      <c r="F20">
+        <v>-25857</v>
+      </c>
+      <c r="G20">
+        <v>131</v>
+      </c>
+      <c r="H20">
+        <v>-5736</v>
+      </c>
+      <c r="I20">
+        <v>12270</v>
+      </c>
+      <c r="J20">
+        <v>6534</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>2184.49</v>
-      </c>
-      <c r="C2">
-        <v>1359.7</v>
-      </c>
-      <c r="D2">
-        <v>-939.88</v>
-      </c>
-      <c r="E2">
-        <v>-580.1</v>
-      </c>
-      <c r="F2">
-        <v>3.96</v>
-      </c>
-      <c r="G2">
-        <v>-156.32</v>
-      </c>
-      <c r="H2">
-        <v>1839.4</v>
-      </c>
-      <c r="I2">
-        <v>1683.08</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>2724</v>
-      </c>
-      <c r="C3">
-        <v>2237</v>
-      </c>
-      <c r="D3">
-        <v>-392</v>
-      </c>
-      <c r="E3">
-        <v>244</v>
-      </c>
-      <c r="F3">
-        <v>7</v>
-      </c>
-      <c r="G3">
-        <v>2096</v>
-      </c>
-      <c r="H3">
-        <v>1683</v>
-      </c>
-      <c r="I3">
-        <v>3779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>4129</v>
-      </c>
-      <c r="C4">
-        <v>3256</v>
-      </c>
-      <c r="D4">
-        <v>-1065</v>
-      </c>
-      <c r="E4">
-        <v>-316</v>
-      </c>
-      <c r="F4">
-        <v>-0.04</v>
-      </c>
-      <c r="G4">
-        <v>1871</v>
-      </c>
-      <c r="H4">
-        <v>3779</v>
-      </c>
-      <c r="I4">
-        <v>5650</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>5100</v>
-      </c>
-      <c r="C5">
-        <v>3816</v>
-      </c>
-      <c r="D5">
-        <v>-978</v>
-      </c>
-      <c r="E5">
-        <v>-777</v>
-      </c>
-      <c r="F5">
-        <v>18</v>
-      </c>
-      <c r="G5">
-        <v>2079</v>
-      </c>
-      <c r="H5">
-        <v>5610</v>
-      </c>
-      <c r="I5">
-        <v>7689</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>6714</v>
-      </c>
-      <c r="C6">
-        <v>5152</v>
-      </c>
-      <c r="D6">
-        <v>-195</v>
-      </c>
-      <c r="E6">
-        <v>-2430</v>
-      </c>
-      <c r="F6">
-        <v>0.73</v>
-      </c>
-      <c r="G6">
-        <v>2600</v>
-      </c>
-      <c r="H6">
-        <v>7689</v>
-      </c>
-      <c r="I6">
-        <v>10289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>7472</v>
-      </c>
-      <c r="C7">
-        <v>5876</v>
-      </c>
-      <c r="D7">
-        <v>-3314</v>
-      </c>
-      <c r="E7">
-        <v>-1486</v>
-      </c>
-      <c r="F7">
-        <v>-68</v>
-      </c>
-      <c r="G7">
-        <v>1008</v>
-      </c>
-      <c r="H7">
-        <v>10289</v>
-      </c>
-      <c r="I7">
-        <v>11297</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>8821</v>
-      </c>
-      <c r="C8">
-        <v>4270</v>
-      </c>
-      <c r="D8">
-        <v>3235</v>
-      </c>
-      <c r="E8">
-        <v>-3642</v>
-      </c>
-      <c r="F8">
-        <v>5</v>
-      </c>
-      <c r="G8">
-        <v>3868</v>
-      </c>
-      <c r="H8">
-        <v>11297</v>
-      </c>
-      <c r="I8">
-        <v>15165</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>11096</v>
-      </c>
-      <c r="C9">
-        <v>5955</v>
-      </c>
-      <c r="D9">
-        <v>565</v>
-      </c>
-      <c r="E9">
-        <v>-2298</v>
-      </c>
-      <c r="F9">
-        <v>60</v>
-      </c>
-      <c r="G9">
-        <v>4392</v>
-      </c>
-      <c r="H9">
-        <v>15165</v>
-      </c>
-      <c r="I9">
-        <v>19557</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>12274</v>
-      </c>
-      <c r="C10">
-        <v>6942</v>
-      </c>
-      <c r="D10">
-        <v>-2824</v>
-      </c>
-      <c r="E10">
-        <v>-3319</v>
-      </c>
-      <c r="F10">
-        <v>45</v>
-      </c>
-      <c r="G10">
-        <v>844</v>
-      </c>
-      <c r="H10">
-        <v>19557</v>
-      </c>
-      <c r="I10">
-        <v>20401</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>14002</v>
-      </c>
-      <c r="C11">
-        <v>9148</v>
-      </c>
-      <c r="D11">
-        <v>-2307</v>
-      </c>
-      <c r="E11">
-        <v>-3177</v>
-      </c>
-      <c r="F11">
-        <v>34</v>
-      </c>
-      <c r="G11">
-        <v>3698</v>
-      </c>
-      <c r="H11">
-        <v>20402</v>
-      </c>
-      <c r="I11">
-        <v>24100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>16798</v>
-      </c>
-      <c r="C12">
-        <v>7955</v>
-      </c>
-      <c r="D12">
-        <v>665</v>
-      </c>
-      <c r="E12">
-        <v>-4961</v>
-      </c>
-      <c r="F12">
-        <v>-37</v>
-      </c>
-      <c r="G12">
-        <v>3622</v>
-      </c>
-      <c r="H12">
-        <v>24100</v>
-      </c>
-      <c r="I12">
-        <v>27722</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>12693</v>
-      </c>
-      <c r="C13">
-        <v>9578</v>
-      </c>
-      <c r="D13">
-        <v>-1207</v>
-      </c>
-      <c r="E13">
-        <v>-6908</v>
-      </c>
-      <c r="F13">
-        <v>-9</v>
-      </c>
-      <c r="G13">
-        <v>1454</v>
-      </c>
-      <c r="H13">
-        <v>27722</v>
-      </c>
-      <c r="I13">
-        <v>29176</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>13818</v>
-      </c>
-      <c r="C14">
-        <v>10478</v>
-      </c>
-      <c r="D14">
-        <v>-13494</v>
-      </c>
-      <c r="E14">
-        <v>-6968</v>
-      </c>
-      <c r="F14">
-        <v>-39</v>
-      </c>
-      <c r="G14">
-        <v>-10023</v>
-      </c>
-      <c r="H14">
-        <v>29176</v>
-      </c>
-      <c r="I14">
-        <v>19153</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>16155</v>
-      </c>
-      <c r="C15">
-        <v>12475</v>
-      </c>
-      <c r="D15">
-        <v>5684</v>
-      </c>
-      <c r="E15">
-        <v>-20536</v>
-      </c>
-      <c r="F15">
-        <v>-6</v>
-      </c>
-      <c r="G15">
-        <v>-2383</v>
-      </c>
-      <c r="H15">
-        <v>19153</v>
-      </c>
-      <c r="I15">
-        <v>16770</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>14702</v>
-      </c>
-      <c r="C16">
-        <v>13989</v>
-      </c>
-      <c r="D16">
-        <v>-587</v>
-      </c>
-      <c r="E16">
-        <v>-14571</v>
-      </c>
-      <c r="F16">
-        <v>-50</v>
-      </c>
-      <c r="G16">
-        <v>-1219</v>
-      </c>
-      <c r="H16">
-        <v>16770</v>
-      </c>
-      <c r="I16">
-        <v>15551</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>15543</v>
-      </c>
-      <c r="C17">
-        <v>15572</v>
-      </c>
-      <c r="D17">
-        <v>-116</v>
-      </c>
-      <c r="E17">
-        <v>-17391</v>
-      </c>
-      <c r="F17">
-        <v>-54</v>
-      </c>
-      <c r="G17">
-        <v>-1989</v>
-      </c>
-      <c r="H17">
-        <v>15551</v>
-      </c>
-      <c r="I17">
-        <v>13562</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>18048</v>
-      </c>
-      <c r="C18">
-        <v>19902</v>
-      </c>
-      <c r="D18">
-        <v>-6309</v>
-      </c>
-      <c r="E18">
-        <v>-9566</v>
-      </c>
-      <c r="F18">
-        <v>23</v>
-      </c>
-      <c r="G18">
-        <v>4050</v>
-      </c>
-      <c r="H18">
-        <v>13562</v>
-      </c>
-      <c r="I18">
-        <v>17612</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>21235</v>
-      </c>
-      <c r="C19">
-        <v>22096</v>
-      </c>
-      <c r="D19">
-        <v>-3150</v>
-      </c>
-      <c r="E19">
-        <v>-24275</v>
-      </c>
-      <c r="F19">
-        <v>-13</v>
-      </c>
-      <c r="G19">
-        <v>-5342</v>
-      </c>
-      <c r="H19">
-        <v>17612</v>
-      </c>
-      <c r="I19">
-        <v>12270</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>23268</v>
-      </c>
-      <c r="C20">
-        <v>19169</v>
-      </c>
-      <c r="D20">
-        <v>821</v>
-      </c>
-      <c r="E20">
-        <v>-25857</v>
-      </c>
-      <c r="F20">
-        <v>131</v>
-      </c>
-      <c r="G20">
-        <v>-5736</v>
-      </c>
-      <c r="H20">
-        <v>12270</v>
-      </c>
-      <c r="I20">
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
+        <v>27234</v>
+      </c>
+      <c r="D21">
+        <v>20787</v>
+      </c>
+      <c r="E21">
+        <v>-3261</v>
+      </c>
+      <c r="F21">
+        <v>-15825</v>
+      </c>
+      <c r="G21">
+        <v>-44</v>
+      </c>
+      <c r="H21">
+        <v>1657</v>
+      </c>
+      <c r="I21">
         <v>6534</v>
       </c>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>27234</v>
-      </c>
-      <c r="C21">
-        <v>20787</v>
-      </c>
-      <c r="D21">
-        <v>-3261</v>
-      </c>
-      <c r="E21">
-        <v>-15825</v>
-      </c>
-      <c r="F21">
-        <v>-44</v>
-      </c>
-      <c r="G21">
-        <v>1657</v>
-      </c>
-      <c r="H21">
-        <v>6534</v>
-      </c>
-      <c r="I21">
+      <c r="J21">
         <v>8191</v>
       </c>
     </row>
@@ -2240,86 +2330,89 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V21"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22">
+        <v>64</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
-        <v>6859.66</v>
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
       </c>
       <c r="C2">
         <v>6859.66</v>
@@ -2328,66 +2421,69 @@
         <v>6859.66</v>
       </c>
       <c r="E2">
+        <v>6859.66</v>
+      </c>
+      <c r="F2">
         <v>127.6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6987.26</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>563.47</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>3183.25</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>268.22</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>734.08</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4802.77</v>
-      </c>
-      <c r="M2">
-        <v>2184.49</v>
       </c>
       <c r="N2">
         <v>2184.49</v>
       </c>
       <c r="O2">
+        <v>2184.49</v>
+      </c>
+      <c r="P2">
         <v>326.7</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>-1.4</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>325.3</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>1859.19</v>
-      </c>
-      <c r="S2">
-        <v>1899.79</v>
       </c>
       <c r="T2">
         <v>1899.79</v>
       </c>
       <c r="U2">
-        <v>70.20999999999999</v>
+        <v>1899.79</v>
       </c>
       <c r="V2">
         <v>70.20999999999999</v>
       </c>
-    </row>
-    <row r="3" spans="1:22">
+      <c r="W2">
+        <v>70.20999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
-        <v>9028</v>
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
       </c>
       <c r="C3">
         <v>9028</v>
@@ -2396,46 +2492,46 @@
         <v>9028</v>
       </c>
       <c r="E3">
+        <v>9028</v>
+      </c>
+      <c r="F3">
         <v>144</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>9172</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>792</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4274</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>409</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>895</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>6448</v>
-      </c>
-      <c r="M3">
-        <v>2724</v>
       </c>
       <c r="N3">
         <v>2724</v>
       </c>
       <c r="O3">
+        <v>2724</v>
+      </c>
+      <c r="P3">
         <v>325</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>-22</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>303</v>
-      </c>
-      <c r="R3">
-        <v>2421</v>
       </c>
       <c r="S3">
         <v>2421</v>
@@ -2444,18 +2540,21 @@
         <v>2421</v>
       </c>
       <c r="U3">
-        <v>87.72</v>
+        <v>2421</v>
       </c>
       <c r="V3">
         <v>87.72</v>
       </c>
-    </row>
-    <row r="4" spans="1:22">
+      <c r="W3">
+        <v>87.72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>13149</v>
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
       </c>
       <c r="C4">
         <v>13149</v>
@@ -2464,66 +2563,69 @@
         <v>13149</v>
       </c>
       <c r="E4">
+        <v>13149</v>
+      </c>
+      <c r="F4">
         <v>379</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>13528</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>1290</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>6316</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>469</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>1208</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>9393</v>
-      </c>
-      <c r="M4">
-        <v>4135</v>
       </c>
       <c r="N4">
         <v>4135</v>
       </c>
       <c r="O4">
+        <v>4135</v>
+      </c>
+      <c r="P4">
         <v>375</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>-23</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>352</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>3783</v>
-      </c>
-      <c r="S4">
-        <v>3778</v>
       </c>
       <c r="T4">
         <v>3778</v>
       </c>
       <c r="U4">
-        <v>66.05</v>
+        <v>3778</v>
       </c>
       <c r="V4">
         <v>66.05</v>
       </c>
-    </row>
-    <row r="5" spans="1:22">
+      <c r="W4">
+        <v>66.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
-        <v>15648</v>
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
       </c>
       <c r="C5">
         <v>15648</v>
@@ -2532,46 +2634,46 @@
         <v>15648</v>
       </c>
       <c r="E5">
+        <v>15648</v>
+      </c>
+      <c r="F5">
         <v>683</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>16331</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>1443</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>7771</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>546</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>1347</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>11231</v>
-      </c>
-      <c r="M5">
-        <v>5100</v>
       </c>
       <c r="N5">
         <v>5100</v>
       </c>
       <c r="O5">
+        <v>5100</v>
+      </c>
+      <c r="P5">
         <v>650</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>-20</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>630</v>
-      </c>
-      <c r="R5">
-        <v>4470</v>
       </c>
       <c r="S5">
         <v>4470</v>
@@ -2580,18 +2682,21 @@
         <v>4470</v>
       </c>
       <c r="U5">
-        <v>78.15000000000001</v>
+        <v>4470</v>
       </c>
       <c r="V5">
         <v>78.15000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="1:22">
+      <c r="W5">
+        <v>78.15000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
-        <v>20264</v>
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
       </c>
       <c r="C6">
         <v>20264</v>
@@ -2600,66 +2705,69 @@
         <v>20264</v>
       </c>
       <c r="E6">
+        <v>20264</v>
+      </c>
+      <c r="F6">
         <v>502</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>20766</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>1697</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>9975</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>694</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1541</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>14052</v>
-      </c>
-      <c r="M6">
-        <v>6714</v>
       </c>
       <c r="N6">
         <v>6714</v>
       </c>
       <c r="O6">
+        <v>6714</v>
+      </c>
+      <c r="P6">
         <v>898</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>-3</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>895</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>5819</v>
-      </c>
-      <c r="S6">
-        <v>5818</v>
       </c>
       <c r="T6">
         <v>5818</v>
       </c>
       <c r="U6">
-        <v>101.71</v>
+        <v>5818</v>
       </c>
       <c r="V6">
         <v>101.71</v>
       </c>
-    </row>
-    <row r="7" spans="1:22">
+      <c r="W6">
+        <v>101.71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
-        <v>21140</v>
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
       </c>
       <c r="C7">
         <v>21140</v>
@@ -2668,46 +2776,46 @@
         <v>21140</v>
       </c>
       <c r="E7">
+        <v>21140</v>
+      </c>
+      <c r="F7">
         <v>967</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>22107</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>1993</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>10356</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>807</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>1409</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>14587</v>
-      </c>
-      <c r="M7">
-        <v>7520</v>
       </c>
       <c r="N7">
         <v>7520</v>
       </c>
       <c r="O7">
+        <v>7520</v>
+      </c>
+      <c r="P7">
         <v>1696</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>21</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1717</v>
-      </c>
-      <c r="R7">
-        <v>5803</v>
       </c>
       <c r="S7">
         <v>5803</v>
@@ -2716,18 +2824,21 @@
         <v>5803</v>
       </c>
       <c r="U7">
-        <v>101.1</v>
+        <v>5803</v>
       </c>
       <c r="V7">
         <v>101.1</v>
       </c>
-    </row>
-    <row r="8" spans="1:22">
+      <c r="W7">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
-        <v>25385</v>
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
       </c>
       <c r="C8">
         <v>25385</v>
@@ -2736,46 +2847,46 @@
         <v>25385</v>
       </c>
       <c r="E8">
+        <v>25385</v>
+      </c>
+      <c r="F8">
         <v>1147</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>26532</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3196</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>12464</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>740</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>1311</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17711</v>
-      </c>
-      <c r="M8">
-        <v>8821</v>
       </c>
       <c r="N8">
         <v>8821</v>
       </c>
       <c r="O8">
+        <v>8821</v>
+      </c>
+      <c r="P8">
         <v>2378</v>
       </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
       <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
         <v>2378</v>
-      </c>
-      <c r="R8">
-        <v>6443</v>
       </c>
       <c r="S8">
         <v>6443</v>
@@ -2784,18 +2895,21 @@
         <v>6443</v>
       </c>
       <c r="U8">
+        <v>6443</v>
+      </c>
+      <c r="V8">
         <v>112.26</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>122.22</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
-        <v>31254</v>
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
       </c>
       <c r="C9">
         <v>31254</v>
@@ -2804,46 +2918,46 @@
         <v>31254</v>
       </c>
       <c r="E9">
+        <v>31254</v>
+      </c>
+      <c r="F9">
         <v>1829</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>33083</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3947</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>15481</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>794</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>1765</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>21987</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>11096</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>11580</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>3110</v>
       </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
       <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
         <v>3110</v>
-      </c>
-      <c r="R9">
-        <v>8470</v>
       </c>
       <c r="S9">
         <v>8470</v>
@@ -2852,18 +2966,21 @@
         <v>8470</v>
       </c>
       <c r="U9">
+        <v>8470</v>
+      </c>
+      <c r="V9">
         <v>147.51</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>147.5</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
-        <v>36765</v>
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
       </c>
       <c r="C10">
         <v>36765</v>
@@ -2872,46 +2989,46 @@
         <v>36765</v>
       </c>
       <c r="E10">
+        <v>36765</v>
+      </c>
+      <c r="F10">
         <v>2215</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>38980</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>2969</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>19932</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>956</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>2849</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>26706</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>12274</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>12357</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>3361</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>-120</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>3241</v>
-      </c>
-      <c r="R10">
-        <v>9116</v>
       </c>
       <c r="S10">
         <v>9116</v>
@@ -2920,18 +3037,21 @@
         <v>9116</v>
       </c>
       <c r="U10">
-        <v>158.76</v>
+        <v>9116</v>
       </c>
       <c r="V10">
         <v>158.76</v>
       </c>
-    </row>
-    <row r="11" spans="1:22">
+      <c r="W10">
+        <v>158.76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
-        <v>44341</v>
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
       </c>
       <c r="C11">
         <v>44341</v>
@@ -2940,46 +3060,46 @@
         <v>44341</v>
       </c>
       <c r="E11">
+        <v>44341</v>
+      </c>
+      <c r="F11">
         <v>2576</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>46917</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3990</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>24350</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>1101</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>3474</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>32915</v>
-      </c>
-      <c r="M11">
-        <v>14002</v>
       </c>
       <c r="N11">
         <v>14002</v>
       </c>
       <c r="O11">
+        <v>14002</v>
+      </c>
+      <c r="P11">
         <v>4063</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>-255</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>3808</v>
-      </c>
-      <c r="R11">
-        <v>10194</v>
       </c>
       <c r="S11">
         <v>10194</v>
@@ -2988,18 +3108,21 @@
         <v>10194</v>
       </c>
       <c r="U11">
-        <v>178.39</v>
+        <v>10194</v>
       </c>
       <c r="V11">
         <v>178.39</v>
       </c>
-    </row>
-    <row r="12" spans="1:22">
+      <c r="W11">
+        <v>178.39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
-        <v>47300</v>
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
       </c>
       <c r="C12">
         <v>47300</v>
@@ -3008,46 +3131,46 @@
         <v>47300</v>
       </c>
       <c r="E12">
+        <v>47300</v>
+      </c>
+      <c r="F12">
         <v>3337</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>50637</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>4284</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>25115</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>913</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3939</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>34251</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>16386</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>16798</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>4537</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>97</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>4634</v>
-      </c>
-      <c r="R12">
-        <v>12164</v>
       </c>
       <c r="S12">
         <v>12164</v>
@@ -3056,18 +3179,21 @@
         <v>12164</v>
       </c>
       <c r="U12">
-        <v>105.91</v>
+        <v>12164</v>
       </c>
       <c r="V12">
         <v>105.91</v>
       </c>
-    </row>
-    <row r="13" spans="1:22">
+      <c r="W12">
+        <v>105.91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
-        <v>53983</v>
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
       </c>
       <c r="C13">
         <v>53983</v>
@@ -3076,46 +3202,46 @@
         <v>53983</v>
       </c>
       <c r="E13">
+        <v>53983</v>
+      </c>
+      <c r="F13">
         <v>3006</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>56989</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>5466</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>28207</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>1115</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>4601</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>39389</v>
-      </c>
-      <c r="M13">
-        <v>17600</v>
       </c>
       <c r="N13">
         <v>17600</v>
       </c>
       <c r="O13">
+        <v>17600</v>
+      </c>
+      <c r="P13">
         <v>4898</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>9</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>4907</v>
-      </c>
-      <c r="R13">
-        <v>12693</v>
       </c>
       <c r="S13">
         <v>12693</v>
@@ -3124,18 +3250,21 @@
         <v>12693</v>
       </c>
       <c r="U13">
-        <v>55.26</v>
+        <v>12693</v>
       </c>
       <c r="V13">
         <v>55.26</v>
       </c>
-    </row>
-    <row r="14" spans="1:22">
+      <c r="W13">
+        <v>55.26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>59289</v>
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
       </c>
       <c r="C14">
         <v>59289</v>
@@ -3144,46 +3273,46 @@
         <v>59289</v>
       </c>
       <c r="E14">
+        <v>59289</v>
+      </c>
+      <c r="F14">
         <v>3062</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>62351</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6044</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>30944</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>1331</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>5094</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>43413</v>
-      </c>
-      <c r="M14">
-        <v>18938</v>
       </c>
       <c r="N14">
         <v>18938</v>
       </c>
       <c r="O14">
+        <v>18938</v>
+      </c>
+      <c r="P14">
         <v>5068</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>52</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>5120</v>
-      </c>
-      <c r="R14">
-        <v>13818</v>
       </c>
       <c r="S14">
         <v>13818</v>
@@ -3192,18 +3321,21 @@
         <v>13818</v>
       </c>
       <c r="U14">
+        <v>13818</v>
+      </c>
+      <c r="V14">
         <v>60.16</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>60.15</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
-        <v>61941</v>
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
       </c>
       <c r="C15">
         <v>61941</v>
@@ -3212,46 +3344,46 @@
         <v>61941</v>
       </c>
       <c r="E15">
+        <v>61941</v>
+      </c>
+      <c r="F15">
         <v>4019</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>65960</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6764</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>32472</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
       <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
         <v>1408</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>5408</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>46052</v>
-      </c>
-      <c r="M15">
-        <v>19908</v>
       </c>
       <c r="N15">
         <v>19908</v>
       </c>
       <c r="O15">
+        <v>19908</v>
+      </c>
+      <c r="P15">
         <v>4003</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-250</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3753</v>
-      </c>
-      <c r="R15">
-        <v>16155</v>
       </c>
       <c r="S15">
         <v>16155</v>
@@ -3260,18 +3392,21 @@
         <v>16155</v>
       </c>
       <c r="U15">
+        <v>16155</v>
+      </c>
+      <c r="V15">
         <v>71.28</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>71.25</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
-        <v>73107</v>
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
       </c>
       <c r="C16">
         <v>73107</v>
@@ -3280,46 +3415,46 @@
         <v>73107</v>
       </c>
       <c r="E16">
+        <v>73107</v>
+      </c>
+      <c r="F16">
         <v>2852</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>75959</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>12633</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>38296</v>
       </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>1599</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>3504</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>56032</v>
-      </c>
-      <c r="M16">
-        <v>19927</v>
       </c>
       <c r="N16">
         <v>19927</v>
       </c>
       <c r="O16">
+        <v>19927</v>
+      </c>
+      <c r="P16">
         <v>5189</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>36</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>5225</v>
-      </c>
-      <c r="R16">
-        <v>14702</v>
       </c>
       <c r="S16">
         <v>14702</v>
@@ -3328,18 +3463,21 @@
         <v>14702</v>
       </c>
       <c r="U16">
+        <v>14702</v>
+      </c>
+      <c r="V16">
         <v>33.66</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>33.64</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
-        <v>79047</v>
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
       </c>
       <c r="C17">
         <v>79047</v>
@@ -3348,46 +3486,46 @@
         <v>79047</v>
       </c>
       <c r="E17">
+        <v>79047</v>
+      </c>
+      <c r="F17">
         <v>2700</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>81747</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>13791</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>42434</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>114</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2144</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>2787</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>61270</v>
-      </c>
-      <c r="M17">
-        <v>20477</v>
       </c>
       <c r="N17">
         <v>20477</v>
       </c>
       <c r="O17">
+        <v>20477</v>
+      </c>
+      <c r="P17">
         <v>5235</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-301</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>4934</v>
-      </c>
-      <c r="R17">
-        <v>15543</v>
       </c>
       <c r="S17">
         <v>15543</v>
@@ -3396,18 +3534,21 @@
         <v>15543</v>
       </c>
       <c r="U17">
+        <v>15543</v>
+      </c>
+      <c r="V17">
         <v>36.34</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>36.32</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:23">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
-        <v>85912</v>
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
       <c r="C18">
         <v>85912</v>
@@ -3416,46 +3557,46 @@
         <v>85912</v>
       </c>
       <c r="E18">
+        <v>85912</v>
+      </c>
+      <c r="F18">
         <v>2467</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>88379</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>13533</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>45179</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>126</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2321</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2743</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>63902</v>
-      </c>
-      <c r="M18">
-        <v>24477</v>
       </c>
       <c r="N18">
         <v>24477</v>
       </c>
       <c r="O18">
+        <v>24477</v>
+      </c>
+      <c r="P18">
         <v>6013</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>416</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>6429</v>
-      </c>
-      <c r="R18">
-        <v>18048</v>
       </c>
       <c r="S18">
         <v>18048</v>
@@ -3464,18 +3605,21 @@
         <v>18048</v>
       </c>
       <c r="U18">
+        <v>18048</v>
+      </c>
+      <c r="V18">
         <v>42.37</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>42.33</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:23">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
-        <v>103940</v>
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
       </c>
       <c r="C19">
         <v>103940</v>
@@ -3484,46 +3628,46 @@
         <v>103940</v>
       </c>
       <c r="E19">
+        <v>103940</v>
+      </c>
+      <c r="F19">
         <v>3224</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>107164</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>21958</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>51664</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>128</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2429</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2490</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>78669</v>
-      </c>
-      <c r="M19">
-        <v>28495</v>
       </c>
       <c r="N19">
         <v>28495</v>
       </c>
       <c r="O19">
+        <v>28495</v>
+      </c>
+      <c r="P19">
         <v>6960</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>300</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>7260</v>
-      </c>
-      <c r="R19">
-        <v>21235</v>
       </c>
       <c r="S19">
         <v>21235</v>
@@ -3532,18 +3676,21 @@
         <v>21235</v>
       </c>
       <c r="U19">
+        <v>21235</v>
+      </c>
+      <c r="V19">
         <v>50.27</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>50.21</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <v>124014</v>
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
       </c>
       <c r="C20">
         <v>124014</v>
@@ -3552,46 +3699,46 @@
         <v>124014</v>
       </c>
       <c r="E20">
+        <v>124014</v>
+      </c>
+      <c r="F20">
         <v>3859</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>127873</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>27275</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>62764</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>157</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>2753</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>3281</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>96230</v>
-      </c>
-      <c r="M20">
-        <v>31643</v>
       </c>
       <c r="N20">
         <v>31643</v>
       </c>
       <c r="O20">
+        <v>31643</v>
+      </c>
+      <c r="P20">
         <v>8167</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>208</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>8375</v>
-      </c>
-      <c r="R20">
-        <v>23268</v>
       </c>
       <c r="S20">
         <v>23268</v>
@@ -3600,18 +3747,21 @@
         <v>23268</v>
       </c>
       <c r="U20">
+        <v>23268</v>
+      </c>
+      <c r="V20">
         <v>55.48</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>55.42</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <v>128933</v>
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
       </c>
       <c r="C21">
         <v>128933</v>
@@ -3620,46 +3770,46 @@
         <v>128933</v>
       </c>
       <c r="E21">
+        <v>128933</v>
+      </c>
+      <c r="F21">
         <v>7417</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>136350</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>28449</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>65139</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>277</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>2944</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>3588</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>100397</v>
-      </c>
-      <c r="M21">
-        <v>35953</v>
       </c>
       <c r="N21">
         <v>35953</v>
       </c>
       <c r="O21">
+        <v>35953</v>
+      </c>
+      <c r="P21">
         <v>7306</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>1413</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>8719</v>
-      </c>
-      <c r="R21">
-        <v>27234</v>
       </c>
       <c r="S21">
         <v>27234</v>
@@ -3668,9 +3818,12 @@
         <v>27234</v>
       </c>
       <c r="U21">
+        <v>27234</v>
+      </c>
+      <c r="V21">
         <v>65.62</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>65.56</v>
       </c>
     </row>
@@ -3689,84 +3842,84 @@
   <sheetData>
     <row r="1" spans="1:23">
       <c r="A1" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>65</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:23">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D2">
         <v>11534</v>
@@ -3831,13 +3984,13 @@
     </row>
     <row r="3" spans="1:23">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C3" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D3">
         <v>11366</v>
@@ -3902,13 +4055,13 @@
     </row>
     <row r="4" spans="1:23">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C4" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D4">
         <v>11319</v>
@@ -3973,13 +4126,13 @@
     </row>
     <row r="5" spans="1:23">
       <c r="A5" t="s">
-        <v>86</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D5">
         <v>11863</v>
@@ -4044,13 +4197,13 @@
     </row>
     <row r="6" spans="1:23">
       <c r="A6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" t="s">
         <v>86</v>
       </c>
-      <c r="B6" t="s">
-        <v>97</v>
-      </c>
       <c r="C6" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D6">
         <v>12192</v>
@@ -4115,13 +4268,13 @@
     </row>
     <row r="7" spans="1:23">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C7" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D7">
         <v>11926</v>
@@ -4186,13 +4339,13 @@
     </row>
     <row r="8" spans="1:23">
       <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
         <v>87</v>
       </c>
-      <c r="B8" t="s">
-        <v>99</v>
-      </c>
       <c r="C8" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D8">
         <v>12738</v>
@@ -4257,13 +4410,13 @@
     </row>
     <row r="9" spans="1:23">
       <c r="A9" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D9">
         <v>13525</v>
@@ -4328,13 +4481,13 @@
     </row>
     <row r="10" spans="1:23">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>13562</v>
@@ -4399,13 +4552,13 @@
     </row>
     <row r="11" spans="1:23">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D11">
         <v>14158</v>
@@ -4470,13 +4623,13 @@
     </row>
     <row r="12" spans="1:23">
       <c r="A12" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C12" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D12">
         <v>14420</v>
@@ -4541,13 +4694,13 @@
     </row>
     <row r="13" spans="1:23">
       <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
       <c r="C13" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D13">
         <v>15000</v>
@@ -4612,13 +4765,13 @@
     </row>
     <row r="14" spans="1:23">
       <c r="A14" t="s">
-        <v>88</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D14">
         <v>14949</v>
@@ -4683,13 +4836,13 @@
     </row>
     <row r="15" spans="1:23">
       <c r="A15" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C15" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D15">
         <v>14920</v>
@@ -4754,13 +4907,13 @@
     </row>
     <row r="16" spans="1:23">
       <c r="A16" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C16" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D16">
         <v>14971</v>
@@ -4825,13 +4978,13 @@
     </row>
     <row r="17" spans="1:23">
       <c r="A17" t="s">
-        <v>89</v>
+        <v>26</v>
       </c>
       <c r="B17" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C17" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D17">
         <v>15356</v>
@@ -4896,13 +5049,13 @@
     </row>
     <row r="18" spans="1:23">
       <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" t="s">
         <v>89</v>
-      </c>
-      <c r="B18" t="s">
-        <v>97</v>
-      </c>
-      <c r="C18" t="s">
-        <v>101</v>
       </c>
       <c r="D18">
         <v>15631</v>
@@ -4967,13 +5120,13 @@
     </row>
     <row r="19" spans="1:23">
       <c r="A19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" t="s">
         <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C19" t="s">
-        <v>102</v>
       </c>
       <c r="D19">
         <v>15984</v>
@@ -5038,13 +5191,13 @@
     </row>
     <row r="20" spans="1:23">
       <c r="A20" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C20" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D20">
         <v>17056</v>
@@ -5109,13 +5262,13 @@
     </row>
     <row r="21" spans="1:23">
       <c r="A21" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B21" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C21" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D21">
         <v>18297</v>
@@ -5180,13 +5333,13 @@
     </row>
     <row r="22" spans="1:23">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>27</v>
       </c>
       <c r="B22" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C22" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D22">
         <v>18819</v>
@@ -5251,13 +5404,13 @@
     </row>
     <row r="23" spans="1:23">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C23" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D23">
         <v>18935</v>
@@ -5322,13 +5475,13 @@
     </row>
     <row r="24" spans="1:23">
       <c r="A24" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" t="s">
+        <v>87</v>
+      </c>
+      <c r="C24" t="s">
         <v>91</v>
-      </c>
-      <c r="B24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C24" t="s">
-        <v>103</v>
       </c>
       <c r="D24">
         <v>19131</v>
@@ -5393,13 +5546,13 @@
     </row>
     <row r="25" spans="1:23">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D25">
         <v>19666</v>
@@ -5464,13 +5617,13 @@
     </row>
     <row r="26" spans="1:23">
       <c r="A26" t="s">
-        <v>91</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C26" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D26">
         <v>20064</v>
@@ -5535,13 +5688,13 @@
     </row>
     <row r="27" spans="1:23">
       <c r="A27" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C27" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D27">
         <v>20187</v>
@@ -5606,13 +5759,13 @@
     </row>
     <row r="28" spans="1:23">
       <c r="A28" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C28" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D28">
         <v>20325</v>
@@ -5677,13 +5830,13 @@
     </row>
     <row r="29" spans="1:23">
       <c r="A29" t="s">
+        <v>29</v>
+      </c>
+      <c r="B29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C29" t="s">
         <v>92</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" t="s">
-        <v>104</v>
       </c>
       <c r="D29">
         <v>21046</v>
@@ -5748,13 +5901,13 @@
     </row>
     <row r="30" spans="1:23">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C30" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>22043</v>
@@ -5819,13 +5972,13 @@
     </row>
     <row r="31" spans="1:23">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C31" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D31">
         <v>22497</v>
@@ -5890,13 +6043,13 @@
     </row>
     <row r="32" spans="1:23">
       <c r="A32" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C32" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D32">
         <v>23714</v>
@@ -5961,13 +6114,13 @@
     </row>
     <row r="33" spans="1:23">
       <c r="A33" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B33" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C33" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D33">
         <v>25462</v>
@@ -6032,13 +6185,13 @@
     </row>
     <row r="34" spans="1:23">
       <c r="A34" t="s">
-        <v>93</v>
+        <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C34" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D34">
         <v>27337</v>
@@ -6103,13 +6256,13 @@
     </row>
     <row r="35" spans="1:23">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B35" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C35" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D35">
         <v>27426</v>
@@ -6174,13 +6327,13 @@
     </row>
     <row r="36" spans="1:23">
       <c r="A36" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B36" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C36" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D36">
         <v>29527</v>
@@ -6245,13 +6398,13 @@
     </row>
     <row r="37" spans="1:23">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D37">
         <v>31567</v>
@@ -6316,13 +6469,13 @@
     </row>
     <row r="38" spans="1:23">
       <c r="A38" t="s">
-        <v>94</v>
+        <v>31</v>
       </c>
       <c r="B38" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C38" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D38">
         <v>32389</v>
@@ -6387,13 +6540,13 @@
     </row>
     <row r="39" spans="1:23">
       <c r="A39" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B39" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D39">
         <v>30531</v>
@@ -6458,13 +6611,13 @@
     </row>
     <row r="40" spans="1:23">
       <c r="A40" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D40">
         <v>31811</v>
@@ -6529,13 +6682,13 @@
     </row>
     <row r="41" spans="1:23">
       <c r="A41" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D41">
         <v>32629</v>
@@ -6600,13 +6753,13 @@
     </row>
     <row r="42" spans="1:23">
       <c r="A42" t="s">
-        <v>95</v>
+        <v>32</v>
       </c>
       <c r="B42" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C42" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D42">
         <v>32491</v>
@@ -6671,13 +6824,13 @@
     </row>
     <row r="43" spans="1:23">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B43" t="s">
-        <v>98</v>
+        <v>34</v>
       </c>
       <c r="C43" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="D43">
         <v>32001</v>
@@ -6742,13 +6895,13 @@
     </row>
     <row r="44" spans="1:23">
       <c r="A44" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B44" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C44" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="D44">
         <v>33283</v>
@@ -6813,13 +6966,13 @@
     </row>
     <row r="45" spans="1:23">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B45" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="C45" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="D45">
         <v>34257</v>
@@ -6884,13 +7037,13 @@
     </row>
     <row r="46" spans="1:23">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C46" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="D46">
         <v>34915</v>
@@ -6960,1185 +7113,1248 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18">
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2">
+        <v>14</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C2">
         <v>253.52</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>90.65000000000001</v>
-      </c>
-      <c r="D2">
-        <v>80.73</v>
       </c>
       <c r="E2">
         <v>80.73</v>
       </c>
       <c r="F2">
+        <v>80.73</v>
+      </c>
+      <c r="G2">
         <v>70.20999999999999</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>35.75</v>
-      </c>
-      <c r="H2">
-        <v>31.84</v>
       </c>
       <c r="I2">
         <v>31.84</v>
       </c>
       <c r="J2">
+        <v>31.84</v>
+      </c>
+      <c r="K2">
         <v>27.69</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>36.24</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>28.83</v>
       </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
       <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>16.3</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>14.28</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>83.7</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>59467.96</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>24.25</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:19">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3">
         <v>327.1</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>113.51</v>
-      </c>
-      <c r="D3">
-        <v>98.7</v>
       </c>
       <c r="E3">
         <v>98.7</v>
       </c>
       <c r="F3">
+        <v>98.7</v>
+      </c>
+      <c r="G3">
         <v>87.72</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>34.7</v>
-      </c>
-      <c r="H3">
-        <v>30.17</v>
       </c>
       <c r="I3">
         <v>30.17</v>
       </c>
       <c r="J3">
+        <v>30.17</v>
+      </c>
+      <c r="K3">
         <v>26.81</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>35.1</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>26.56</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
       <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
         <v>51.13</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>43.74</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>48.87</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>78992.46000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>25.21</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:19">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4">
         <v>229.88</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>80.48999999999999</v>
-      </c>
-      <c r="D4">
-        <v>72.29000000000001</v>
       </c>
       <c r="E4">
         <v>72.29000000000001</v>
       </c>
       <c r="F4">
+        <v>72.29000000000001</v>
+      </c>
+      <c r="G4">
         <v>66.05</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>35.01</v>
-      </c>
-      <c r="H4">
-        <v>31.44</v>
       </c>
       <c r="I4">
         <v>31.44</v>
       </c>
       <c r="J4">
+        <v>31.44</v>
+      </c>
+      <c r="K4">
         <v>28.73</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>33.84</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>29.09</v>
       </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
       <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
         <v>17.17</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>15.28</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>82.83</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>109613.72</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>23.81</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:19">
       <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5">
         <v>273.57</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>98.70999999999999</v>
-      </c>
-      <c r="D5">
-        <v>89.16</v>
       </c>
       <c r="E5">
         <v>89.16</v>
       </c>
       <c r="F5">
+        <v>89.16</v>
+      </c>
+      <c r="G5">
         <v>78.15000000000001</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>36.08</v>
-      </c>
-      <c r="H5">
-        <v>32.59</v>
       </c>
       <c r="I5">
         <v>32.59</v>
       </c>
       <c r="J5">
+        <v>32.59</v>
+      </c>
+      <c r="K5">
         <v>28.56</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>33.13</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>25.95</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
       <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
         <v>42.55</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>37.91</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>57.45</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>75375.58</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13.35</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:19">
       <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
         <v>354.27</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>129.51</v>
-      </c>
-      <c r="D6">
-        <v>117.38</v>
       </c>
       <c r="E6">
         <v>117.38</v>
       </c>
       <c r="F6">
+        <v>117.38</v>
+      </c>
+      <c r="G6">
         <v>101.71</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>36.55</v>
-      </c>
-      <c r="H6">
-        <v>33.13</v>
       </c>
       <c r="I6">
         <v>33.13</v>
       </c>
       <c r="J6">
+        <v>33.13</v>
+      </c>
+      <c r="K6">
         <v>28.71</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>32.66</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>27.5</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
       <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
         <v>23.11</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>20.65</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>76.89</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>66699.52</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:19">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
         <v>368.29</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>145.07</v>
-      </c>
-      <c r="D7">
-        <v>131.01</v>
       </c>
       <c r="E7">
         <v>131.01</v>
       </c>
       <c r="F7">
+        <v>131.01</v>
+      </c>
+      <c r="G7">
         <v>101.1</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>39.38</v>
-      </c>
-      <c r="H7">
-        <v>35.57</v>
       </c>
       <c r="I7">
         <v>35.57</v>
       </c>
       <c r="J7">
+        <v>35.57</v>
+      </c>
+      <c r="K7">
         <v>27.45</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>26.33</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>22.26</v>
       </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
       <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
         <v>24.71</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>21.69</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>75.29000000000001</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>140309.74</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>16.85</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:19">
       <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
         <v>442.25</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>166.57</v>
-      </c>
-      <c r="D8">
-        <v>153.68</v>
       </c>
       <c r="E8">
         <v>153.68</v>
       </c>
       <c r="F8">
+        <v>153.68</v>
+      </c>
+      <c r="G8">
         <v>112.25</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>37.66</v>
-      </c>
-      <c r="H8">
-        <v>34.74</v>
       </c>
       <c r="I8">
         <v>34.74</v>
       </c>
       <c r="J8">
+        <v>34.74</v>
+      </c>
+      <c r="K8">
         <v>25.38</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>26.29</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>22.32</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
       <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
         <v>53.46</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>47.96</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>46.54</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>172124.45</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:19">
       <c r="A9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
         <v>544.49</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>207.14</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>193.31</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>201.74</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>147.56</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>38.04</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>35.5</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>37.05</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>27.1</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>28.46</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>23.64</v>
       </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
       <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
         <v>31.86</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>29.13</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>68.14</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>146391.13</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>12.31</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:19">
       <c r="A10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10">
         <v>640.51</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>230.49</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>213.83</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>215.28</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>158.82</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>35.98</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>33.38</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>33.61</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>24.79</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>25.28</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>21.18</v>
       </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
       <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
         <v>26.45</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>23.94</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>73.55</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>145479.26</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:19">
       <c r="A11" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11">
         <v>775.1900000000001</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>264.04</v>
-      </c>
-      <c r="D11">
-        <v>244.79</v>
       </c>
       <c r="E11">
         <v>244.79</v>
       </c>
       <c r="F11">
+        <v>244.79</v>
+      </c>
+      <c r="G11">
         <v>178.22</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>34.06</v>
-      </c>
-      <c r="H11">
-        <v>31.57</v>
       </c>
       <c r="I11">
         <v>31.57</v>
       </c>
       <c r="J11">
+        <v>31.57</v>
+      </c>
+      <c r="K11">
         <v>22.99</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>24.21</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>19.33</v>
       </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
       <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>35.49</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>32.03</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>64.51000000000001</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>163450.22</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>10.82</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:19">
       <c r="A12" t="s">
-        <v>23</v>
-      </c>
-      <c r="B12">
+        <v>24</v>
+      </c>
+      <c r="B12" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12">
         <v>412.02</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>150.69</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>142.74</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>146.32</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>105.96</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>36.57</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>34.64</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>35.51</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>25.71</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>25.3</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>19.67</v>
       </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
       <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
         <v>42.01</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>39.08</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>57.99</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>226743.68</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>13.11</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:19">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="B13">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13">
         <v>235.12</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>81.51000000000001</v>
-      </c>
-      <c r="D13">
-        <v>76.66</v>
       </c>
       <c r="E13">
         <v>76.66</v>
       </c>
       <c r="F13">
+        <v>76.66</v>
+      </c>
+      <c r="G13">
         <v>55.28</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>34.66</v>
-      </c>
-      <c r="H13">
-        <v>32.6</v>
       </c>
       <c r="I13">
         <v>32.6</v>
       </c>
       <c r="J13">
+        <v>32.6</v>
+      </c>
+      <c r="K13">
         <v>23.51</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>20.78</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>17.45</v>
       </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
       <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
         <v>43.88</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>40.33</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>56.12</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>250465.32</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>13.38</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:19">
       <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14">
         <v>258.23</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>88.28</v>
-      </c>
-      <c r="D14">
-        <v>82.48</v>
       </c>
       <c r="E14">
         <v>82.48</v>
       </c>
       <c r="F14">
+        <v>82.48</v>
+      </c>
+      <c r="G14">
         <v>60.18</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>34.18</v>
-      </c>
-      <c r="H14">
-        <v>31.94</v>
       </c>
       <c r="I14">
         <v>31.94</v>
       </c>
       <c r="J14">
+        <v>31.94</v>
+      </c>
+      <c r="K14">
         <v>23.3</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>20.31</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>17.29</v>
       </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
       <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
         <v>50.51</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>46.07</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>49.49</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>215222.68</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>10.62</v>
       </c>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:19">
       <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15">
         <v>283.61</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>97.59999999999999</v>
-      </c>
-      <c r="D15">
-        <v>91.15000000000001</v>
       </c>
       <c r="E15">
         <v>91.15000000000001</v>
       </c>
       <c r="F15">
+        <v>91.15000000000001</v>
+      </c>
+      <c r="G15">
         <v>73.97</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>34.41</v>
-      </c>
-      <c r="H15">
-        <v>32.14</v>
       </c>
       <c r="I15">
         <v>32.14</v>
       </c>
       <c r="J15">
+        <v>32.14</v>
+      </c>
+      <c r="K15">
         <v>26.08</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>25.44</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>21.29</v>
       </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
       <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
         <v>46.42</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>42.7</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>53.58</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>230982.96</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>10.84</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:19">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16">
         <v>167.83</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>49.42</v>
-      </c>
-      <c r="D16">
-        <v>45.75</v>
       </c>
       <c r="E16">
         <v>45.75</v>
       </c>
       <c r="F16">
+        <v>45.75</v>
+      </c>
+      <c r="G16">
         <v>33.75</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>29.44</v>
-      </c>
-      <c r="H16">
-        <v>27.25</v>
       </c>
       <c r="I16">
         <v>27.25</v>
       </c>
       <c r="J16">
+        <v>27.25</v>
+      </c>
+      <c r="K16">
         <v>20.11</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>23.44</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>18.62</v>
       </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
       <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
         <v>93.64</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>84.45999999999999</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>6.36</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>307794.88</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>14.3</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:19">
       <c r="A17" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17">
         <v>185.64</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>53.39</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>48.36</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>48.09</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>36.5</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>28.76</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>26.04</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>25.9</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>19.66</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>24.97</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>19.17</v>
       </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
       <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
         <v>61.46</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>54.01</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>38.54</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>259077.74</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>11.4</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:19">
       <c r="A18" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18">
         <v>201.67</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>63.2</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>57.75</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>57.46</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>42.37</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>31.33</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>28.63</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>28.49</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>25.23</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>19.21</v>
       </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
       <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
         <v>50.74</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>44.96</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>49.26</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>565049.5</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>20.99</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:19">
       <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19">
         <v>247.12</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>73.83</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>68.05</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>67.75</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>50.49</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>29.87</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>27.53</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>27.41</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>20.43</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>30.63</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>21.36</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
       <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
         <v>59.8</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>53.66</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>40.2</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>789898.3199999999</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>25.44</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:19">
       <c r="A20" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20">
         <v>298.97</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>83.3</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>76.66</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>76.28</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>56.09</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>27.86</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>25.64</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>25.51</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>18.76</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>34.34</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>22.96</v>
       </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
       <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
         <v>58.77</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>52.55</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>41.23</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>585675.96</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>16.95</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:19">
       <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21">
         <v>310.68</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>94.40000000000001</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>87.3</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>86.63</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>65.62</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>30.38</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>28.09</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>27.88</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>21.12</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>33.54</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>23.69</v>
       </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
       <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
         <v>54.09</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>48.82</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>45.91</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>613811</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>15.67</v>
       </c>
     </row>
